--- a/medicine/Enfance/Le_Clan_des_sept/Le_Clan_des_sept.xlsx
+++ b/medicine/Enfance/Le_Clan_des_sept/Le_Clan_des_sept.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Clan des sept (titre original : The Secret Seven) est une série de quinze romans policiers pour la jeunesse écrits par Enid Blyton, publiée de 1949 à 1963 au Royaume-Uni, et de 1958 à 1974 en France par les éditions Hachette dans la collection Bibliothèque rose.
@@ -513,7 +525,9 @@
           <t>Thème de la série</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Version simplifiée du Club des cinq destinée aux lecteurs les plus jeunes, Le Clan des sept relate les aventures gentillettes d'une bande composée de quatre garçons, de trois jeunes filles et de leur chien nommé Moustique. Ces sept personnages résolvent diverses énigmes. De même que pour la série du Club des Cinq, la traduction française transpose en France le contexte des différentes histoires.[réf. nécessaire]
 </t>
@@ -544,7 +558,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les sept héros
 Pierre (Peter en VO) : le chef du clan
@@ -588,9 +604,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Série Le Clan des sept d'Enid Blyton
-Indépendamment de ces romans, Enid Blyton a également écrit sept nouvelles ayant pour héros le Clan des sept. Ces nouvelles ont fait l'objet d'un recueil publié en 1998 sous le titre Secret Seven: Short Story Collection, chez Hodder &amp; Stoughton.
-Série Les Sept d'Évelyne Lallemand</t>
+          <t>Série Le Clan des sept d'Enid Blyton</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indépendamment de ces romans, Enid Blyton a également écrit sept nouvelles ayant pour héros le Clan des sept. Ces nouvelles ont fait l'objet d'un recueil publié en 1998 sous le titre Secret Seven: Short Story Collection, chez Hodder &amp; Stoughton.
+</t>
         </is>
       </c>
     </row>
@@ -618,7 +639,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>site internet
 Bibliothèque nationale de France (pour la bibliographie)
